--- a/releases/2.2/CPSV-AP Specification v2.2.xlsx
+++ b/releases/2.2/CPSV-AP Specification v2.2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barthelf\Documents\Projects\CoS\CoS 4\D02\D02.02\CPSV-AP_v2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servaism\Documents\1-Clients\CPSV-AP\Joinup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Public Service" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -247,6 +247,24 @@
   </si>
   <si>
     <t>CollectionURI</t>
+  </si>
+  <si>
+    <t>areaServed</t>
+  </si>
+  <si>
+    <t>availableLanguage</t>
+  </si>
+  <si>
+    <t>contactOption</t>
+  </si>
+  <si>
+    <t>contactType</t>
+  </si>
+  <si>
+    <t>faxNumber</t>
+  </si>
+  <si>
+    <t>productSupported</t>
   </si>
 </sst>
 </file>
@@ -427,7 +445,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -475,7 +493,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -779,43 +797,44 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="2" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="25.5" customHeight="1">
+    <row r="1" spans="1:27" ht="25.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -823,118 +842,121 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="O2"/>
-      <c r="U2"/>
-      <c r="V2" s="15"/>
-    </row>
-    <row r="3" spans="1:26" s="2" customFormat="1">
-      <c r="V3" s="15"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="N2" s="2"/>
+      <c r="V2"/>
+      <c r="W2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1">
+      <c r="W3" s="15"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="O4"/>
-      <c r="U4"/>
-      <c r="V4" s="15"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="J5"/>
-      <c r="N5"/>
+      <c r="N4" s="2"/>
+      <c r="P4"/>
+      <c r="V4"/>
+      <c r="W4" s="15"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="K5"/>
       <c r="O5"/>
-      <c r="U5"/>
+      <c r="P5"/>
+      <c r="V5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -947,52 +969,59 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="45.54296875" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1">
+    <row r="1" spans="1:7" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="C2" s="15"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="21"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.5">
+      <c r="B3" s="21"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1008,14 +1037,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.453125" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1">
@@ -1038,82 +1067,82 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="14.5">
+    <row r="3" spans="1:6">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="14.5">
+    <row r="4" spans="1:6">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="14.5">
+    <row r="5" spans="1:6">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="14.5">
+    <row r="6" spans="1:6">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="14.5">
+    <row r="7" spans="1:6">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="14.5">
+    <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="14.5">
+    <row r="9" spans="1:6">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="14.5">
+    <row r="10" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="14.5">
+    <row r="11" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="14.5">
+    <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="14.5">
+    <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="14.5">
+    <row r="14" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="14.5">
+    <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="14.5">
+    <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" ht="14.5">
+    <row r="17" spans="1:3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1128,21 +1157,22 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" customWidth="1"/>
-    <col min="3" max="5" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="2" customWidth="1"/>
+    <col min="4" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.75" customHeight="1">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1150,140 +1180,160 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="3"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.5">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.5">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.5">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.5">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.5">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.5">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.5">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.5">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.5">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.5">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.5">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.5">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.5">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.5">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.5">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.5">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.5">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1302,10 +1352,10 @@
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1">
@@ -1316,52 +1366,52 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.5">
+    <row r="2" spans="1:2">
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:2" ht="14.5">
+    <row r="3" spans="1:2">
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" ht="14.5">
+    <row r="4" spans="1:2">
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2" ht="14.5">
+    <row r="5" spans="1:2">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2" ht="14.5">
+    <row r="6" spans="1:2">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" ht="14.5">
+    <row r="7" spans="1:2">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:2" ht="14.5">
+    <row r="8" spans="1:2">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:2" ht="14.5">
+    <row r="9" spans="1:2">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" ht="14.5">
+    <row r="10" spans="1:2">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:2" ht="14.5">
+    <row r="11" spans="1:2">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" ht="14.5">
+    <row r="12" spans="1:2">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2" ht="14.5">
+    <row r="13" spans="1:2">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:2" ht="14.5">
+    <row r="14" spans="1:2">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2" ht="14.5">
+    <row r="15" spans="1:2">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:2" ht="14.5">
+    <row r="16" spans="1:2">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="2:2" ht="14.5">
+    <row r="17" spans="2:2">
       <c r="B17" s="5"/>
     </row>
   </sheetData>
@@ -1375,41 +1425,46 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="40" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:5" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="14.5">
+    <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1422,132 +1477,145 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" customWidth="1"/>
-    <col min="2" max="2" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="22.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="22.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.5">
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.5">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.5">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.5">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.5">
-      <c r="B7" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.5">
-      <c r="B8" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.5">
-      <c r="B9" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.5">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.5">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.5">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.5">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1559,21 +1627,27 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1">
+    <row r="1" spans="1:10" ht="26.25" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>57</v>
       </c>
@@ -1586,75 +1660,94 @@
       <c r="D1" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.5">
+      <c r="E1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="10"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="14.5">
+    <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="14.5">
+    <row r="4" spans="1:10">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="14.5">
+    <row r="5" spans="1:10">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="14.5">
+    <row r="6" spans="1:10">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="14.5">
+    <row r="7" spans="1:10">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="14.5">
+    <row r="8" spans="1:10">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="14.5">
+    <row r="9" spans="1:10">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="14.5">
+    <row r="10" spans="1:10">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="14.5">
+    <row r="11" spans="1:10">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="14.5">
+    <row r="12" spans="1:10">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="14.5">
+    <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="14.5">
+    <row r="14" spans="1:10">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="14.5">
+    <row r="15" spans="1:10">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1666,9 +1759,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1689,12 +1782,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.5" customHeight="1">
+    <row r="1" spans="1:2" ht="20.45" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>68</v>
       </c>
@@ -1712,154 +1805,171 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.453125" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1">
+    <row r="1" spans="1:6" ht="26.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.5">
+      <c r="D2" s="5"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.5">
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.5">
+      <c r="D4" s="7"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.5">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.5">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.5">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.5">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.5">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.5">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.5">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.5">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.5">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.5">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.5">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.5">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D17">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E17">
       <formula1>"Starting a business,Starting corss-border business,Doing business,Closing business"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1872,149 +1982,165 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="15.1796875" style="2"/>
+    <col min="1" max="1" width="44.42578125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="28" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="15.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1">
+    <row r="1" spans="1:6" ht="26.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="3"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.5">
+      <c r="D2" s="5"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.5">
+      <c r="D3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4"/>
-      <c r="C4" s="11"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.5">
+      <c r="D4" s="11"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.5">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.5">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.5">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.5">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.5">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.5">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.5">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.5">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.5">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.5">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.5">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.5">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D17">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E17">
       <formula1>"Starting a business,Starting corss-border business,Doing business,Closing business"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2027,22 +2153,22 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="21" style="2" customWidth="1"/>
     <col min="3" max="3" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.81640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="15.1796875" style="2"/>
+    <col min="4" max="5" width="53.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="15.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" customHeight="1">
+    <row r="1" spans="1:5" ht="25.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -2054,6 +2180,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2067,22 +2196,22 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="15.1796875" style="2"/>
+    <col min="1" max="1" width="44.42578125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="15.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" customHeight="1">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>37</v>
       </c>
@@ -2090,85 +2219,104 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2180,108 +2328,127 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="15.1796875" style="2"/>
+    <col min="1" max="1" width="44.42578125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="15.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" customHeight="1">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2293,133 +2460,150 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.1796875" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="51" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" customHeight="1">
+    <row r="1" spans="1:7" ht="29.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.5">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.5">
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.5">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.5">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.5">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.5">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.5">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.5">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.5">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.5">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.5">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" ht="14.5">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5" ht="14.5">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5" ht="14.5">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2436,16 +2620,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1">
@@ -2465,133 +2649,133 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.5">
+    <row r="2" spans="1:5">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="16"/>
       <c r="D2" s="5"/>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:5" ht="14.5">
+    <row r="3" spans="1:5">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="14.5">
+    <row r="4" spans="1:5">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="14.5">
+    <row r="5" spans="1:5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="14.5">
+    <row r="6" spans="1:5">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="14.5">
+    <row r="7" spans="1:5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="14.5">
+    <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="14.5">
+    <row r="9" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="14.5">
+    <row r="10" spans="1:5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="14.5">
+    <row r="11" spans="1:5">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="14.5">
+    <row r="12" spans="1:5">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="14.5">
+    <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="14.5">
+    <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="14.5">
+    <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="14.5">
+    <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="14.5">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="14.5">
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="14.5">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="14.5">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2608,68 +2792,76 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="49.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" customHeight="1">
+    <row r="1" spans="1:7" ht="29.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.5">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.5">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.5">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2678,23 +2870,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PwC_JobCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049</PwC_JobCode>
-    <PwC_JobSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049 - ABCIII SC270</PwC_JobSearch>
-    <PwC_FiscalYear xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">FY17</PwC_FiscalYear>
-    <PwC_Language xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">EN</PwC_Language>
-    <PwC_ExpirationDate xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">2023-07-10T22:00:00+00:00</PwC_ExpirationDate>
-    <PwC_ClientCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139</PwC_ClientCode>
-    <RelatedItems xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PwC_ClientSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139 - DG INFORMATICS (DIGIT)</PwC_ClientSearch>
-    <_dlc_DocId xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">SK445ZKHUCMR-447-133</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">
-      <Url>https://be-docbox.be.ema.pwcinternal.com/sites/10014628/86155139F049/_layouts/15/DocIdRedir.aspx?ID=SK445ZKHUCMR-447-133</Url>
-      <Description>SK445ZKHUCMR-447-133</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2909,12 +3090,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PwC_JobCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049</PwC_JobCode>
+    <PwC_JobSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049 - ABCIII SC270</PwC_JobSearch>
+    <PwC_FiscalYear xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">FY17</PwC_FiscalYear>
+    <PwC_Language xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">EN</PwC_Language>
+    <PwC_ExpirationDate xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">2023-07-10T22:00:00+00:00</PwC_ExpirationDate>
+    <PwC_ClientCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139</PwC_ClientCode>
+    <RelatedItems xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PwC_ClientSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139 - DG INFORMATICS (DIGIT)</PwC_ClientSearch>
+    <_dlc_DocId xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">SK445ZKHUCMR-447-133</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">
+      <Url>https://be-docbox.be.ema.pwcinternal.com/sites/10014628/86155139F049/_layouts/15/DocIdRedir.aspx?ID=SK445ZKHUCMR-447-133</Url>
+      <Description>SK445ZKHUCMR-447-133</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2968,19 +3160,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2323CD-3102-47C1-AE6C-40C0EBF3BFA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E82FCB-F73C-4EEA-86B9-8873465BC0AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="73fde05d-ef26-44d0-b13b-b564e323f6a1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="885fffe5-095f-4e72-b33a-2965af2fc427"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3006,9 +3188,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E82FCB-F73C-4EEA-86B9-8873465BC0AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2323CD-3102-47C1-AE6C-40C0EBF3BFA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="73fde05d-ef26-44d0-b13b-b564e323f6a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="885fffe5-095f-4e72-b33a-2965af2fc427"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/releases/2.2/CPSV-AP Specification v2.2.xlsx
+++ b/releases/2.2/CPSV-AP Specification v2.2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765"/>
   </bookViews>
   <sheets>
     <sheet name="Public Service" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,8 @@
     <sheet name="Agent" sheetId="10" r:id="rId14"/>
     <sheet name="Public Organisation" sheetId="11" r:id="rId15"/>
     <sheet name="Contact Point" sheetId="13" r:id="rId16"/>
-    <sheet name="Concept" sheetId="20" r:id="rId17"/>
-    <sheet name="Collection" sheetId="21" r:id="rId18"/>
+    <sheet name="Collection" sheetId="21" r:id="rId17"/>
+    <sheet name="Concept" sheetId="20" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="0">#REF!</definedName>
@@ -799,9 +799,9 @@
   </sheetPr>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15"/>
@@ -1481,14 +1481,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="2" customWidth="1"/>
     <col min="4" max="6" width="22.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
@@ -1497,11 +1497,11 @@
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>56</v>
@@ -1561,21 +1561,21 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="C7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="C8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="C9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1629,9 +1629,9 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1753,6 +1753,32 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.45" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1774,32 +1800,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="20.45" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -1809,7 +1809,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1986,7 +1986,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -2157,14 +2157,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="53.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.85546875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="15.140625" style="2"/>
   </cols>
   <sheetData>
@@ -2176,13 +2177,13 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2620,14 +2621,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2636,11 +2637,11 @@
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
@@ -2651,8 +2652,8 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="5"/>
       <c r="E2" s="16"/>
     </row>
@@ -2871,14 +2872,75 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PwC_JobCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049</PwC_JobCode>
+    <PwC_JobSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049 - ABCIII SC270</PwC_JobSearch>
+    <PwC_FiscalYear xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">FY17</PwC_FiscalYear>
+    <PwC_Language xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">EN</PwC_Language>
+    <PwC_ExpirationDate xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">2023-07-10T22:00:00+00:00</PwC_ExpirationDate>
+    <PwC_ClientCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139</PwC_ClientCode>
+    <RelatedItems xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PwC_ClientSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139 - DG INFORMATICS (DIGIT)</PwC_ClientSearch>
+    <_dlc_DocId xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">SK445ZKHUCMR-447-133</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">
+      <Url>https://be-docbox.be.ema.pwcinternal.com/sites/10014628/86155139F049/_layouts/15/DocIdRedir.aspx?ID=SK445ZKHUCMR-447-133</Url>
+      <Description>SK445ZKHUCMR-447-133</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="PwC Job Document" ma:contentTypeID="0x0101008E49C3D400044AB3A2F1DD14073E74F6001D06D12572244BE3A11AAEE3ED60F576000AAB1FD6C2134AF1A3EA6F52344189D8003DA7CBE2F9F6014D91228B237B0D6438" ma:contentTypeVersion="2" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="3d6a3c6679c05d12a3160ad00a1d5007">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="73fde05d-ef26-44d0-b13b-b564e323f6a1" xmlns:ns3="885fffe5-095f-4e72-b33a-2965af2fc427" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9ac53f853e0ef9b3d9397434b7eb735" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3089,85 +3151,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PwC_JobCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049</PwC_JobCode>
-    <PwC_JobSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049 - ABCIII SC270</PwC_JobSearch>
-    <PwC_FiscalYear xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">FY17</PwC_FiscalYear>
-    <PwC_Language xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">EN</PwC_Language>
-    <PwC_ExpirationDate xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">2023-07-10T22:00:00+00:00</PwC_ExpirationDate>
-    <PwC_ClientCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139</PwC_ClientCode>
-    <RelatedItems xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PwC_ClientSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139 - DG INFORMATICS (DIGIT)</PwC_ClientSearch>
-    <_dlc_DocId xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">SK445ZKHUCMR-447-133</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">
-      <Url>https://be-docbox.be.ema.pwcinternal.com/sites/10014628/86155139F049/_layouts/15/DocIdRedir.aspx?ID=SK445ZKHUCMR-447-133</Url>
-      <Description>SK445ZKHUCMR-447-133</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E82FCB-F73C-4EEA-86B9-8873465BC0AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704B0184-4F17-45F2-9AC0-8A30DB782E6F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2323CD-3102-47C1-AE6C-40C0EBF3BFA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="73fde05d-ef26-44d0-b13b-b564e323f6a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="885fffe5-095f-4e72-b33a-2965af2fc427"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10E94497-4933-4E21-9510-AD09FE48006D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3187,28 +3206,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2323CD-3102-47C1-AE6C-40C0EBF3BFA9}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E82FCB-F73C-4EEA-86B9-8873465BC0AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="73fde05d-ef26-44d0-b13b-b564e323f6a1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="885fffe5-095f-4e72-b33a-2965af2fc427"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704B0184-4F17-45F2-9AC0-8A30DB782E6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>